--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2126846.194968361</v>
+        <v>2124594.115257154</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7740905403524</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>174.9123239800301</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>156.8419562775888</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>206.5922292904575</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>56.54941082145479</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699533</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888058</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>139.1755959712196</v>
       </c>
       <c r="H8" t="n">
-        <v>218.8748435506845</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>76.95030199542329</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>157.7822070347172</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>93.59472601529558</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458089</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>74.96337793488422</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046957</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>63.16281301712667</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>14.53306611597336</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="G34" t="n">
-        <v>126.9263824507425</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.6587144826194</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812055</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2182.266054653544</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C2" t="n">
-        <v>1813.303537713133</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1455.037839106382</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="E2" t="n">
-        <v>1069.249586508138</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>658.2636817185305</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>243.191231563527</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.266054653544</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2182.266054653544</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4437,22 +4437,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>816.0752021691758</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="C4" t="n">
-        <v>816.0752021691758</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D4" t="n">
-        <v>665.95856275684</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E4" t="n">
-        <v>518.0454691744469</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>371.1555216765365</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.60866391532</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040963</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1446.505797040963</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W4" t="n">
-        <v>1446.505797040963</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X4" t="n">
-        <v>1218.516246142946</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="Y4" t="n">
-        <v>997.7236669994155</v>
+        <v>382.1280466398575</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1285.591601078693</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>916.6290841382813</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>558.3633855315309</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>172.5751329332866</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>165.6296321840832</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2435.796531379706</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2062.330773118626</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1672.191441142815</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038044</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097632</v>
+        <v>939.4077790033343</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490882</v>
+        <v>939.4077790033343</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926375</v>
+        <v>553.61952640509</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030299</v>
+        <v>546.6740256558866</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5978169884305</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102166</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>685.812291163864</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T10" t="n">
-        <v>1767.918581386758</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.918581386758</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1134.594421205411</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>906.6048703073941</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>685.812291163864</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836018</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798836018</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>584.529540471266</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>584.529540471266</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>437.6395929733557</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>270.4434936882356</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5270,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.9255961109956</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
         <v>175.9033664000583</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782999</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038386</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>840.5740609412353</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,34 +5492,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,22 +5598,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,16 +6306,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349513</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703114</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408905</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>417.4044582545033</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>250.2083589693833</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>108.4965278115813</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277359</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>363.7369613277359</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>363.7369613277359</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,19 +6947,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>46.69998683092828</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944563</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.6212754172106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187344</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>104.0840080815012</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>66.73277020259218</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="G34" t="n">
-        <v>38.59775584152634</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.9259388694753738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405073</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="14">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516056</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516054</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516057</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="H2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="M2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820644</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820644</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820644</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="J4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685507</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26448,10 +26448,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934827.189985587</v>
+        <v>-934827.1899855862</v>
       </c>
       <c r="C6" t="n">
-        <v>393917.5557420064</v>
+        <v>393917.5557420055</v>
       </c>
       <c r="D6" t="n">
         <v>393917.5557420061</v>
       </c>
       <c r="E6" t="n">
-        <v>144429.541067137</v>
+        <v>144394.8031417009</v>
       </c>
       <c r="F6" t="n">
-        <v>469842.0028744921</v>
+        <v>469807.2649490567</v>
       </c>
       <c r="G6" t="n">
-        <v>469842.002874492</v>
+        <v>469807.2649490566</v>
       </c>
       <c r="H6" t="n">
-        <v>469842.0028744923</v>
+        <v>469807.2649490564</v>
       </c>
       <c r="I6" t="n">
-        <v>469842.0028744921</v>
+        <v>469807.2649490568</v>
       </c>
       <c r="J6" t="n">
-        <v>252310.8004772148</v>
+        <v>252276.062551779</v>
       </c>
       <c r="K6" t="n">
-        <v>469842.0028744923</v>
+        <v>469807.2649490563</v>
       </c>
       <c r="L6" t="n">
-        <v>469842.002874492</v>
+        <v>469807.2649490564</v>
       </c>
       <c r="M6" t="n">
-        <v>384786.9749389802</v>
+        <v>384752.2370135445</v>
       </c>
       <c r="N6" t="n">
-        <v>469842.0028744923</v>
+        <v>469807.2649490567</v>
       </c>
       <c r="O6" t="n">
-        <v>469842.0028744921</v>
+        <v>469807.2649490564</v>
       </c>
       <c r="P6" t="n">
-        <v>469842.0028744924</v>
+        <v>469807.2649490566</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.4988012306552</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>119.6954404072903</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>9.183851981439432</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>19.11742609857964</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>354.3723148319987</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104177</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>94.35543628911111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>73.85778156328897</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>271.7461296822339</v>
       </c>
       <c r="H8" t="n">
-        <v>75.73292083663591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90.29651910320455</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>61.76674224145199</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138809</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,19 +31841,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,16 +31862,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>519.7862086120936</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>652.3203287778407</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614911</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340067</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295757</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>388.4444965287602</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>520.9786166945074</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394727</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
